--- a/Parameters/weather_parameters.xlsx
+++ b/Parameters/weather_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/hert5576_ox_ac_uk/Documents/CCG/Hydrogen Flo Flurina/Inputs-Namibia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C709DDCD-8EC3-4823-8E06-0D506BB8D05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E76460-14A4-4E12-A121-7E94CFEA5DA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F361BB-AC44-4A49-9216-514720AFF360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2475" windowWidth="28845" windowHeight="15435" xr2:uid="{0670FC10-9C26-4E6B-94E8-052A5F11C83C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0670FC10-9C26-4E6B-94E8-052A5F11C83C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>2023/01/01</t>
   </si>
   <si>
-    <t>Namibia-2022</t>
+    <t>Zambia-2022</t>
   </si>
 </sst>
 </file>
@@ -422,21 +422,21 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -444,7 +444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -452,39 +452,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
